--- a/sources/Udmurt_data.xlsx
+++ b/sources/Udmurt_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Udmurt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Udmurt!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Udmurt!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="773">
   <si>
     <t>language_no</t>
   </si>
@@ -2371,6 +2371,12 @@
   </si>
   <si>
     <t>Уже не понять, есть тут REFL или нет -- ничего аналогичного без REFL не находится</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
   </si>
 </sst>
 </file>
@@ -2752,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2779,9 +2785,11 @@
     <col min="17" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2839,8 +2847,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>72</v>
       </c>
@@ -2877,17 +2891,19 @@
       <c r="L2" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>659</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S2" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>72</v>
       </c>
@@ -2924,17 +2940,19 @@
       <c r="L3" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>662</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S3" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>72</v>
       </c>
@@ -2978,8 +2996,10 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T4" s="7"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>72</v>
       </c>
@@ -3019,8 +3039,10 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>72</v>
       </c>
@@ -3057,17 +3079,19 @@
       <c r="L6" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S6" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>72</v>
       </c>
@@ -3104,17 +3128,19 @@
       <c r="L7" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>72</v>
       </c>
@@ -3151,17 +3177,19 @@
       <c r="L8" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>668</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S8" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>72</v>
       </c>
@@ -3194,17 +3222,19 @@
       <c r="L9" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>669</v>
-      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S9" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>72</v>
       </c>
@@ -3244,8 +3274,10 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>72</v>
       </c>
@@ -3282,17 +3314,19 @@
       <c r="L11" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>672</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S11" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>72</v>
       </c>
@@ -3329,17 +3363,19 @@
       <c r="L12" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S12" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>72</v>
       </c>
@@ -3383,8 +3419,10 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T13" s="7"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>72</v>
       </c>
@@ -3423,9 +3461,11 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S14" s="5"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>72</v>
       </c>
@@ -3462,17 +3502,19 @@
       <c r="L15" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S15" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>72</v>
       </c>
@@ -3511,9 +3553,11 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>72</v>
       </c>
@@ -3553,8 +3597,10 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>72</v>
       </c>
@@ -3598,8 +3644,10 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>72</v>
       </c>
@@ -3639,8 +3687,10 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T19" s="7"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>72</v>
       </c>
@@ -3679,9 +3729,11 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>72</v>
       </c>
@@ -3721,8 +3773,10 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T21" s="7"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>72</v>
       </c>
@@ -3759,17 +3813,19 @@
       <c r="L22" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S22" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>72</v>
       </c>
@@ -3806,17 +3862,19 @@
       <c r="L23" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S23" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>72</v>
       </c>
@@ -3853,17 +3911,19 @@
       <c r="L24" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>72</v>
       </c>
@@ -3900,17 +3960,19 @@
       <c r="L25" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S25" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>72</v>
       </c>
@@ -3947,17 +4009,19 @@
       <c r="L26" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>689</v>
-      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S26" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>72</v>
       </c>
@@ -3997,8 +4061,10 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T27" s="7"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>72</v>
       </c>
@@ -4038,8 +4104,10 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T28" s="7"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>72</v>
       </c>
@@ -4072,17 +4140,19 @@
       <c r="L29" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>690</v>
-      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S29" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>72</v>
       </c>
@@ -4119,17 +4189,19 @@
       <c r="L30" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>691</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>72</v>
       </c>
@@ -4166,17 +4238,19 @@
       <c r="L31" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S31" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>72</v>
       </c>
@@ -4216,8 +4290,10 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T32" s="7"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>72</v>
       </c>
@@ -4254,17 +4330,19 @@
       <c r="L33" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>693</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S33" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>72</v>
       </c>
@@ -4304,8 +4382,10 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T34" s="7"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>72</v>
       </c>
@@ -4349,8 +4429,10 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T35" s="7"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>72</v>
       </c>
@@ -4394,8 +4476,10 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T36" s="7"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>72</v>
       </c>
@@ -4435,8 +4519,10 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T37" s="7"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>72</v>
       </c>
@@ -4469,17 +4555,19 @@
         <v>574</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
-        <v>694</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S38" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>72</v>
       </c>
@@ -4516,17 +4604,19 @@
       <c r="L39" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S39" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>72</v>
       </c>
@@ -4566,8 +4656,10 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T40" s="7"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>72</v>
       </c>
@@ -4607,8 +4699,10 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T41" s="7"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>72</v>
       </c>
@@ -4648,8 +4742,10 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T42" s="7"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>72</v>
       </c>
@@ -4686,17 +4782,19 @@
       <c r="L43" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S43" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>72</v>
       </c>
@@ -4736,8 +4834,10 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T44" s="7"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>72</v>
       </c>
@@ -4770,17 +4870,19 @@
       <c r="L45" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S45" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>72</v>
       </c>
@@ -4813,17 +4915,19 @@
         <v>574</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="5" t="s">
-        <v>700</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S46" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>72</v>
       </c>
@@ -4856,17 +4960,19 @@
       <c r="L47" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S47" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>72</v>
       </c>
@@ -4903,17 +5009,19 @@
       <c r="L48" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S48" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T48" s="7"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>72</v>
       </c>
@@ -4950,17 +5058,19 @@
       <c r="L49" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>703</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S49" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>72</v>
       </c>
@@ -5000,8 +5110,10 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T50" s="7"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>72</v>
       </c>
@@ -5041,8 +5153,10 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T51" s="7"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>72</v>
       </c>
@@ -5079,17 +5193,19 @@
       <c r="L52" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S52" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>72</v>
       </c>
@@ -5122,17 +5238,19 @@
       <c r="L53" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S53" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>72</v>
       </c>
@@ -5169,17 +5287,19 @@
       <c r="L54" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S54" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="T54" s="7"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>72</v>
       </c>
@@ -5216,17 +5336,19 @@
       <c r="L55" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S55" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>72</v>
       </c>
@@ -5266,8 +5388,10 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T56" s="7"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>72</v>
       </c>
@@ -5304,17 +5428,19 @@
       <c r="L57" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S57" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>72</v>
       </c>
@@ -5351,17 +5477,19 @@
       <c r="L58" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>713</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S58" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>72</v>
       </c>
@@ -5398,17 +5526,19 @@
       <c r="L59" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>715</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S59" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>72</v>
       </c>
@@ -5445,17 +5575,19 @@
       <c r="L60" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>716</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S60" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>72</v>
       </c>
@@ -5495,8 +5627,10 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T61" s="7"/>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>72</v>
       </c>
@@ -5533,17 +5667,19 @@
       <c r="L62" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>717</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S62" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T62" s="7"/>
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>72</v>
       </c>
@@ -5587,8 +5723,10 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T63" s="7"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>72</v>
       </c>
@@ -5628,8 +5766,10 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T64" s="7"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>72</v>
       </c>
@@ -5666,17 +5806,19 @@
       <c r="L65" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S65" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>72</v>
       </c>
@@ -5713,17 +5855,19 @@
       <c r="L66" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>719</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S66" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>72</v>
       </c>
@@ -5763,8 +5907,10 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T67" s="7"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>72</v>
       </c>
@@ -5801,17 +5947,19 @@
       <c r="L68" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>720</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S68" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="T68" s="7"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>72</v>
       </c>
@@ -5848,17 +5996,19 @@
       <c r="L69" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="M69" s="5" t="s">
-        <v>723</v>
-      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S69" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="T69" s="7"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>72</v>
       </c>
@@ -5898,8 +6048,10 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T70" s="7"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>72</v>
       </c>
@@ -5939,8 +6091,10 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T71" s="7"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>72</v>
       </c>
@@ -5980,8 +6134,10 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T72" s="7"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6021,8 +6177,10 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T73" s="7"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6059,17 +6217,19 @@
       <c r="L74" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>724</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S74" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="T74" s="7"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -6106,17 +6266,19 @@
       <c r="L75" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="M75" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S75" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="T75" s="7"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -6149,17 +6311,19 @@
       <c r="L76" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S76" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="T76" s="7"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -6192,17 +6356,19 @@
       <c r="L77" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S77" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>72</v>
       </c>
@@ -6246,8 +6412,10 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T78" s="7"/>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>72</v>
       </c>
@@ -6284,17 +6452,19 @@
       <c r="L79" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>730</v>
-      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S79" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="T79" s="7"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>72</v>
       </c>
@@ -6338,8 +6508,10 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T80" s="7"/>
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>72</v>
       </c>
@@ -6376,17 +6548,19 @@
       <c r="L81" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S81" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>72</v>
       </c>
@@ -6423,17 +6597,19 @@
       <c r="L82" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>732</v>
-      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S82" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="T82" s="7"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>72</v>
       </c>
@@ -6477,8 +6653,10 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T83" s="7"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>72</v>
       </c>
@@ -6522,8 +6700,10 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T84" s="7"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>72</v>
       </c>
@@ -6560,17 +6740,19 @@
       <c r="L85" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>733</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S85" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="T85" s="7"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>72</v>
       </c>
@@ -6603,17 +6785,19 @@
       <c r="L86" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>734</v>
-      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S86" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="T86" s="7"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>72</v>
       </c>
@@ -6653,8 +6837,10 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T87" s="7"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>72</v>
       </c>
@@ -6698,8 +6884,10 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T88" s="7"/>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>72</v>
       </c>
@@ -6743,8 +6931,10 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T89" s="7"/>
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>72</v>
       </c>
@@ -6781,17 +6971,19 @@
       <c r="L90" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>737</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S90" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>72</v>
       </c>
@@ -6828,17 +7020,19 @@
       <c r="L91" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="M91" s="5" t="s">
-        <v>740</v>
-      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S91" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>72</v>
       </c>
@@ -6878,8 +7072,10 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="T92" s="7"/>
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>72</v>
       </c>
@@ -6916,17 +7112,19 @@
       <c r="L93" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>741</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S93" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>72</v>
       </c>
@@ -6966,8 +7164,10 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T94" s="7"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>72</v>
       </c>
@@ -7004,17 +7204,19 @@
       <c r="L95" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S95" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>72</v>
       </c>
@@ -7058,8 +7260,10 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T96" s="7"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>72</v>
       </c>
@@ -7092,17 +7296,19 @@
       <c r="L97" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>744</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S97" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>72</v>
       </c>
@@ -7135,17 +7341,19 @@
       <c r="L98" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>745</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S98" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="T98" s="7"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>72</v>
       </c>
@@ -7182,17 +7390,19 @@
       <c r="L99" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>746</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S99" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>72</v>
       </c>
@@ -7236,8 +7446,10 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T100" s="7"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>72</v>
       </c>
@@ -7274,17 +7486,19 @@
       <c r="L101" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S101" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>72</v>
       </c>
@@ -7321,17 +7535,19 @@
       <c r="L102" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="M102" s="5" t="s">
-        <v>748</v>
-      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S102" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="T102" s="7"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>72</v>
       </c>
@@ -7371,8 +7587,10 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T103" s="7"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>72</v>
       </c>
@@ -7412,8 +7630,10 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T104" s="7"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>72</v>
       </c>
@@ -7457,8 +7677,10 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T105" s="7"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>72</v>
       </c>
@@ -7498,8 +7720,10 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T106" s="7"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>72</v>
       </c>
@@ -7539,8 +7763,10 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T107" s="7"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>72</v>
       </c>
@@ -7580,8 +7806,10 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T108" s="7"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>72</v>
       </c>
@@ -7621,8 +7849,10 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T109" s="7"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>72</v>
       </c>
@@ -7655,17 +7885,19 @@
       <c r="L110" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>749</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S110" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>72</v>
       </c>
@@ -7704,9 +7936,11 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S111" s="5"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>72</v>
       </c>
@@ -7749,9 +7983,11 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S112" s="5"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>72</v>
       </c>
@@ -7788,17 +8024,19 @@
       <c r="L113" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>750</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S113" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>72</v>
       </c>
@@ -7835,17 +8073,19 @@
       <c r="L114" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>751</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S114" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>72</v>
       </c>
@@ -7882,17 +8122,19 @@
       <c r="L115" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>752</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S115" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>72</v>
       </c>
@@ -7925,17 +8167,19 @@
       <c r="L116" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>753</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S116" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>72</v>
       </c>
@@ -7972,17 +8216,19 @@
       <c r="L117" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="M117" s="5" t="s">
-        <v>754</v>
-      </c>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S117" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>72</v>
       </c>
@@ -8019,17 +8265,19 @@
       <c r="L118" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S118" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>72</v>
       </c>
@@ -8066,17 +8314,19 @@
       <c r="L119" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>757</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S119" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>72</v>
       </c>
@@ -8109,17 +8359,19 @@
       <c r="L120" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>758</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S120" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>72</v>
       </c>
@@ -8156,17 +8408,19 @@
       <c r="L121" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M121" s="5" t="s">
-        <v>759</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S121" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>72</v>
       </c>
@@ -8199,17 +8453,19 @@
         <v>574</v>
       </c>
       <c r="L122" s="5"/>
-      <c r="M122" s="5" t="s">
-        <v>760</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S122" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="T122" s="7"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>72</v>
       </c>
@@ -8246,17 +8502,19 @@
       <c r="L123" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>761</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S123" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>72</v>
       </c>
@@ -8293,17 +8551,19 @@
       <c r="L124" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>762</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="S124" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="T124" s="7"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>72</v>
       </c>
@@ -8336,17 +8596,19 @@
       <c r="L125" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>763</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S125" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="T125" s="7"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>72</v>
       </c>
@@ -8390,8 +8652,10 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T126" s="7"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>72</v>
       </c>
@@ -8424,17 +8688,19 @@
       <c r="L127" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M127" s="5" t="s">
-        <v>764</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="S127" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>72</v>
       </c>
@@ -8471,17 +8737,19 @@
       <c r="L128" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>767</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S128" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="T128" s="7"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>72</v>
       </c>
@@ -8518,17 +8786,19 @@
       <c r="L129" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>768</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S129" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>72</v>
       </c>
@@ -8561,17 +8831,19 @@
         <v>574</v>
       </c>
       <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>769</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S130" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="T130" s="7"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>72</v>
       </c>
@@ -8608,18 +8880,20 @@
       <c r="L131" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>770</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/Udmurt_data.xlsx
+++ b/sources/Udmurt_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="773">
   <si>
     <t>language_no</t>
   </si>
@@ -2760,9 +2760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M131"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3025,10 +3023,14 @@
         <v>540</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>541</v>
       </c>
@@ -3215,10 +3217,14 @@
         <v>545</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>541</v>
       </c>
@@ -3260,10 +3266,14 @@
         <v>546</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L10" s="5" t="s">
         <v>541</v>
       </c>
@@ -3448,10 +3458,14 @@
         <v>550</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L14" s="5" t="s">
         <v>541</v>
       </c>
@@ -3540,10 +3554,14 @@
         <v>552</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L16" s="5" t="s">
         <v>541</v>
       </c>
@@ -3583,10 +3601,14 @@
         <v>553</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L17" s="5" t="s">
         <v>541</v>
       </c>
@@ -3673,10 +3695,14 @@
         <v>555</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L19" s="5" t="s">
         <v>541</v>
       </c>
@@ -3716,10 +3742,14 @@
         <v>556</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L20" s="5" t="s">
         <v>541</v>
       </c>
@@ -3759,10 +3789,14 @@
         <v>557</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L21" s="5" t="s">
         <v>541</v>
       </c>
@@ -4047,10 +4081,14 @@
         <v>563</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L27" s="5" t="s">
         <v>541</v>
       </c>
@@ -4090,10 +4128,14 @@
         <v>564</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L28" s="5" t="s">
         <v>541</v>
       </c>
@@ -4133,10 +4175,14 @@
         <v>565</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L29" s="5" t="s">
         <v>541</v>
       </c>
@@ -4276,10 +4322,14 @@
         <v>568</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L32" s="5" t="s">
         <v>541</v>
       </c>
@@ -4368,10 +4418,14 @@
         <v>570</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L34" s="5" t="s">
         <v>541</v>
       </c>
@@ -4505,10 +4559,14 @@
         <v>573</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L37" s="5" t="s">
         <v>541</v>
       </c>
@@ -4550,7 +4608,9 @@
       <c r="I38" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>574</v>
+      </c>
       <c r="K38" s="5" t="s">
         <v>574</v>
       </c>
@@ -4642,10 +4702,14 @@
         <v>576</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L40" s="5" t="s">
         <v>541</v>
       </c>
@@ -4685,10 +4749,14 @@
         <v>577</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L41" s="5" t="s">
         <v>541</v>
       </c>
@@ -4728,10 +4796,14 @@
         <v>578</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L42" s="5" t="s">
         <v>541</v>
       </c>
@@ -4820,10 +4892,14 @@
         <v>580</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L44" s="5" t="s">
         <v>541</v>
       </c>
@@ -4863,10 +4939,14 @@
         <v>581</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L45" s="5" t="s">
         <v>541</v>
       </c>
@@ -4910,7 +4990,9 @@
       <c r="I46" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>574</v>
+      </c>
       <c r="K46" s="5" t="s">
         <v>574</v>
       </c>
@@ -4953,10 +5035,14 @@
         <v>582</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L47" s="5" t="s">
         <v>541</v>
       </c>
@@ -5096,10 +5182,14 @@
         <v>584</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L50" s="5" t="s">
         <v>541</v>
       </c>
@@ -5139,10 +5229,14 @@
         <v>585</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L51" s="5" t="s">
         <v>541</v>
       </c>
@@ -5231,10 +5325,14 @@
         <v>587</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L53" s="5" t="s">
         <v>541</v>
       </c>
@@ -5374,10 +5472,14 @@
         <v>590</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L56" s="5" t="s">
         <v>541</v>
       </c>
@@ -5613,10 +5715,14 @@
         <v>596</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L61" s="5" t="s">
         <v>541</v>
       </c>
@@ -5752,10 +5858,14 @@
         <v>598</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L64" s="5" t="s">
         <v>541</v>
       </c>
@@ -5893,10 +6003,14 @@
         <v>600</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L67" s="5" t="s">
         <v>541</v>
       </c>
@@ -6034,10 +6148,14 @@
         <v>603</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L70" s="5" t="s">
         <v>541</v>
       </c>
@@ -6077,10 +6195,14 @@
         <v>604</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L71" s="5" t="s">
         <v>541</v>
       </c>
@@ -6120,10 +6242,14 @@
         <v>605</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L72" s="5" t="s">
         <v>541</v>
       </c>
@@ -6163,10 +6289,14 @@
         <v>606</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L73" s="5" t="s">
         <v>541</v>
       </c>
@@ -6304,10 +6434,14 @@
         <v>608</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L76" s="5" t="s">
         <v>541</v>
       </c>
@@ -6349,10 +6483,14 @@
         <v>609</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L77" s="5" t="s">
         <v>541</v>
       </c>
@@ -6778,10 +6916,14 @@
         <v>618</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L86" s="5" t="s">
         <v>541</v>
       </c>
@@ -6823,10 +6965,14 @@
         <v>619</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L87" s="5" t="s">
         <v>541</v>
       </c>
@@ -7058,10 +7204,14 @@
         <v>624</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L92" s="5" t="s">
         <v>541</v>
       </c>
@@ -7150,10 +7300,14 @@
         <v>626</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L94" s="5" t="s">
         <v>541</v>
       </c>
@@ -7289,10 +7443,14 @@
         <v>579</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L97" s="5" t="s">
         <v>541</v>
       </c>
@@ -7334,10 +7492,14 @@
         <v>629</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L98" s="5" t="s">
         <v>541</v>
       </c>
@@ -7573,10 +7735,14 @@
         <v>634</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L103" s="5" t="s">
         <v>541</v>
       </c>
@@ -7616,10 +7782,14 @@
         <v>635</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L104" s="5" t="s">
         <v>541</v>
       </c>
@@ -7706,10 +7876,14 @@
         <v>637</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L106" s="5" t="s">
         <v>541</v>
       </c>
@@ -7749,10 +7923,14 @@
         <v>638</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L107" s="5" t="s">
         <v>541</v>
       </c>
@@ -7792,10 +7970,14 @@
         <v>639</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L108" s="5" t="s">
         <v>541</v>
       </c>
@@ -7835,10 +8017,14 @@
         <v>640</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L109" s="5" t="s">
         <v>541</v>
       </c>
@@ -7878,10 +8064,14 @@
         <v>641</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L110" s="5" t="s">
         <v>541</v>
       </c>
@@ -7923,10 +8113,14 @@
         <v>642</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L111" s="5" t="s">
         <v>541</v>
       </c>
@@ -8160,10 +8354,14 @@
         <v>646</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L116" s="5" t="s">
         <v>541</v>
       </c>
@@ -8352,10 +8550,14 @@
         <v>582</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L120" s="5" t="s">
         <v>541</v>
       </c>
@@ -8448,7 +8650,9 @@
       <c r="I122" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="J122" s="5"/>
+      <c r="J122" s="5" t="s">
+        <v>574</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>574</v>
       </c>
@@ -8589,10 +8793,14 @@
         <v>652</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L125" s="5" t="s">
         <v>541</v>
       </c>
@@ -8681,10 +8889,14 @@
         <v>654</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="L127" s="5" t="s">
         <v>541</v>
       </c>
@@ -8826,7 +9038,9 @@
       <c r="I130" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>574</v>
+      </c>
       <c r="K130" s="5" t="s">
         <v>574</v>
       </c>

--- a/sources/Udmurt_data.xlsx
+++ b/sources/Udmurt_data.xlsx
@@ -2760,7 +2760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5574,7 +5576,7 @@
         <v>710</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>711</v>
+        <v>8</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>712</v>
